--- a/booklets/SCRUM ByteRisto.xlsx
+++ b/booklets/SCRUM ByteRisto.xlsx
@@ -1,64 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Desktop/engineering in cs/1° anno/lab of advanced programming/ByteRisto/booklets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D5765-35EB-3D41-B284-B0F26E33858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sprint Backlog" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Burndown Chart" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Product Backlog" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Change Log" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Setup" sheetId="5" r:id="rId7"/>
+    <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Change Log" sheetId="4" r:id="rId4"/>
+    <sheet name="Setup" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="SBstatus">Setup!$C$2:$C$11</definedName>
+    <definedName name="DTnames">Setup!$E$2:$E$11</definedName>
     <definedName name="PBInames">'Product Backlog'!$A$2:$A$101</definedName>
     <definedName name="PBstatus">Setup!$A$2:$A$11</definedName>
-    <definedName name="DTnames">Setup!$E$2:$E$11</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D04C1F66_18DE_4E81_9B6D_ECE568FEAADC_.wvu.FilterData">'Sprint Backlog'!$B$1:$F$104</definedName>
+    <definedName name="SBstatus">Setup!$C$2:$C$11</definedName>
+    <definedName name="Z_42CAC4A3_DE29_4D5A_A7CA_F32097E4DB13_.wvu.FilterData" localSheetId="0" hidden="1">'Sprint Backlog'!$B$1:$F$104</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D04C1F66-18DE-4E81-9B6D-ECE568FEAADC}" name="Filter 1"/>
+    <customWorkbookView name="Filter 1" guid="{42CAC4A3-DE29-4D5A-A7CA-F32097E4DB13}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Feature Name
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Feature Name
 Product Owner: Add the story to the Sprint Backlog
 Develpment Team: Assign tasks for completion</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Development Team: Add a short task name</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Development Team: Add a short task name</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Development Team: Describe the activity and add comments as needed. Add new lines on the same cell with [alt+enter]</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Development Team: Describe the activity and add comments as needed. Add new lines on the same cell with [alt+enter]</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Development Team: Select your name if you are working on it, remove it if you are not working on it anymore so anyone else can pull the activity.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Development Team: Select your name if you are working on it, remove it if you are not working on it anymore so anyone else can pull the activity.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Development Team: Select current status</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Development Team: Select current status</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">Development Team: Fill the estimated remaining effort (how many horus of work are left to complete the task)</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Development Team: Fill the estimated remaining effort (how many horus of work are left to complete the task)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -66,46 +132,108 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">Sprint Date
-At the beginning of the sprint
-Scrum Master: Assign the dates for the current Sprint</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sprint Date
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">At the beginning of the sprint
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scrum Master: Assign the dates for the current Sprint</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A3">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">Sprint Day
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Sprint Day
 At the beginning of the Sprint
 Scrum Master: Write the day number</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">Remaining effort for the respective date.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Remaining effort for the respective date.
 Scrum Master: Fill manually each sprint day with the remaining effort data.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M4">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">Scrum Master: Copy this value to the row Real on today's column. with [ctrl+shit+v]</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scrum Master: Copy this value to the row Real on today's column. with [ctrl+shit+v]</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A5">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <t xml:space="preserve">Ideal plan to finish on time
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ideal plan to finish on time
 At the begining of the sprint
 Scrum Master: Drag formula as needed to fill the Sprint</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A7">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <t xml:space="preserve">Scrum Master: Copy this value to the row Real on today's column. with [ctrl+shit+v]</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Scrum Master: Copy this value to the row Real on today's column. with [ctrl+shit+v]</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -113,26 +241,47 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">Product Owner: Write the name of the story, drag rows according to priorities</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Product Owner: Write the name of the story, drag rows according to priorities</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">Product Owner: Write a detailed description of the story.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Product Owner: Write a detailed description of the story.
 Be specific about high priority features
 Make new lines in the same cell with [alt+enter]</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t xml:space="preserve">Product Owner: Select current status</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Product Owner: Select current status</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -140,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="295">
   <si>
     <t>PB Name</t>
   </si>
@@ -823,39 +972,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>22/9</t>
-  </si>
-  <si>
-    <t>23/9</t>
-  </si>
-  <si>
-    <t>24/9</t>
-  </si>
-  <si>
-    <t>25/9</t>
-  </si>
-  <si>
-    <t>26/9</t>
-  </si>
-  <si>
-    <t>27/9</t>
-  </si>
-  <si>
-    <t>28/9</t>
-  </si>
-  <si>
-    <t>29/9</t>
-  </si>
-  <si>
-    <t>30/9</t>
-  </si>
-  <si>
-    <t>14/10</t>
-  </si>
-  <si>
-    <t>15/10</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -916,6 +1032,9 @@
     <t>Changes</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>v0.1.0</t>
   </si>
   <si>
@@ -946,124 +1065,94 @@
     <t>Release 1.0: Frontend MVP - React application with core UI components</t>
   </si>
   <si>
-    <t>v1.0.1</t>
-  </si>
-  <si>
-    <t>Order and menu component stability improvements</t>
-  </si>
-  <si>
     <t>v1.1.0</t>
   </si>
   <si>
-    <t>UX/UI enhancements and dashboard functionality implementation</t>
+    <t>Menu management system with real-time updates</t>
+  </si>
+  <si>
+    <t>v1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time update implementation </t>
   </si>
   <si>
     <t>v1.2.0</t>
   </si>
   <si>
-    <t>Full-stack integration - Frontend-backend communication layer</t>
+    <t>Order management system and billing workflow implementation</t>
+  </si>
+  <si>
+    <t>v1.2.1</t>
+  </si>
+  <si>
+    <t>Docker fix for optimal fit with Node's services in frontend</t>
   </si>
   <si>
     <t>v1.3.0</t>
   </si>
   <si>
-    <t>Order management system and billing workflow implementation</t>
+    <t xml:space="preserve">API-gateway implementation and Docker integration </t>
   </si>
   <si>
     <t>v1.3.1</t>
   </si>
   <si>
-    <t>Service optimization and inventory management refactoring</t>
+    <t>Menu-inventory implementation and Docker integration</t>
+  </si>
+  <si>
+    <t>v1.3.2</t>
+  </si>
+  <si>
+    <t>Order-management implementation and Docker integration</t>
   </si>
   <si>
     <t>v1.4.0</t>
   </si>
   <si>
-    <t>Menu management system with real-time updates</t>
+    <t>UX/UI design and dashboard functionality implementation</t>
   </si>
   <si>
     <t>v1.4.1</t>
   </si>
   <si>
-    <t>Code cleanup and menu item management fixes</t>
-  </si>
-  <si>
-    <t>v1.5.0</t>
-  </si>
-  <si>
-    <t>UI/UX redesign and database optimization</t>
-  </si>
-  <si>
-    <t>v1.6.0</t>
-  </si>
-  <si>
-    <t>Advanced order processing and status management</t>
-  </si>
-  <si>
-    <t>v1.6.1</t>
-  </si>
-  <si>
-    <t>Legacy feature removal and system streamlining</t>
-  </si>
-  <si>
-    <t>v1.7.0</t>
-  </si>
-  <si>
-    <t>Payment processing system implementation</t>
-  </si>
-  <si>
-    <t>v1.7.1</t>
-  </si>
-  <si>
-    <t>Order state management improvements</t>
+    <t>Role-based access control and authentication system</t>
+  </si>
+  <si>
+    <t>v1.4.2</t>
+  </si>
+  <si>
+    <t>Roles update</t>
   </si>
   <si>
     <t>v2.0.0</t>
   </si>
   <si>
-    <t>Release 2.0: Production containerization with Docker deployment</t>
+    <t>Release 2.0: Complete implementation and README final update</t>
   </si>
   <si>
     <t>v2.1.0</t>
   </si>
   <si>
-    <t>Role-based access control and authentication system</t>
-  </si>
-  <si>
-    <t>v2.1.1</t>
-  </si>
-  <si>
-    <t>Payment status tracking and transaction simulation</t>
-  </si>
-  <si>
-    <t>v2.1.2</t>
-  </si>
-  <si>
-    <t>Component updates and branch consolidation</t>
+    <t>Mock-up added</t>
   </si>
   <si>
     <t>v2.2.0</t>
   </si>
   <si>
-    <t>Documentation overhaul and system logic improvements</t>
-  </si>
-  <si>
-    <t>v2.2.1</t>
-  </si>
-  <si>
-    <t>Multiple incremental improvements and patches</t>
+    <t>Added test folder</t>
   </si>
   <si>
     <t>v2.3.0</t>
   </si>
   <si>
-    <t>Project metrics implementation and data analytics setup</t>
-  </si>
-  <si>
-    <t>v2.3.1</t>
-  </si>
-  <si>
-    <t>Repository reorganization and technical debt reduction</t>
+    <t>Added DataMetrics.json</t>
+  </si>
+  <si>
+    <t>v2.4.0</t>
+  </si>
+  <si>
+    <t>Final patch and minor fixes</t>
   </si>
   <si>
     <t>Product Backlog Status Options</t>
@@ -1090,29 +1179,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d&quot;/&quot;m"/>
-    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1120,7 +1232,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1136,146 +1248,89 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8BC34A"/>
-          <bgColor rgb="FF8BC34A"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEF7E3"/>
-          <bgColor rgb="FFEEF7E3"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
@@ -1283,7 +1338,6 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -1292,131 +1346,230 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBEFF1"/>
+          <bgColor rgb="FFEBEFF1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78909C"/>
+          <bgColor rgb="FF78909C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F2EB"/>
+          <bgColor rgb="FFF8F2EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCA677"/>
+          <bgColor rgb="FFCCA677"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE0F7FA"/>
+          <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF4DD0E1"/>
           <bgColor rgb="FF4DD0E1"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE0F7FA"/>
-          <bgColor rgb="FFE0F7FA"/>
+          <fgColor rgb="FFEEF7E3"/>
+          <bgColor rgb="FFEEF7E3"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCA677"/>
-          <bgColor rgb="FFCCA677"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF8F2EB"/>
-          <bgColor rgb="FFF8F2EB"/>
+          <fgColor rgb="FF8BC34A"/>
+          <bgColor rgb="FF8BC34A"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF78909C"/>
-          <bgColor rgb="FF78909C"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBEFF1"/>
-          <bgColor rgb="FFEBEFF1"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDBDBD"/>
-          <bgColor rgb="FFBDBDBD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="7">
-    <tableStyle count="3" pivot="0" name="Sprint Backlog-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sprint Backlog-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Burndown Chart-style">
-      <tableStyleElement dxfId="6" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="7" type="secondRowStripe"/>
+    <tableStyle name="Burndown Chart-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Product Backlog-style">
-      <tableStyleElement dxfId="8" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="9" type="secondRowStripe"/>
+    <tableStyle name="Product Backlog-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Change Log-style">
-      <tableStyleElement dxfId="10" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="11" type="secondRowStripe"/>
+    <tableStyle name="Change Log-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Setup-style">
-      <tableStyleElement dxfId="12" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="13" type="secondRowStripe"/>
+    <tableStyle name="Setup-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Setup-style 2">
-      <tableStyleElement dxfId="12" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="13" type="secondRowStripe"/>
+    <tableStyle name="Setup-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Setup-style 3">
-      <tableStyleElement dxfId="12" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="13" type="secondRowStripe"/>
+    <tableStyle name="Setup-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1425,7 +1578,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1433,7 +1586,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600">
+              <a:rPr lang="it-IT" sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1446,28 +1599,37 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.08634"/>
+          <c:x val="8.634E-2"/>
           <c:y val="0.19086"/>
-          <c:w val="0.87225"/>
-          <c:h val="0.61828"/>
+          <c:w val="0.87224999999999997"/>
+          <c:h val="0.61828000000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Burndown Chart'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
@@ -1490,17 +1652,113 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$3:$W$3</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$4:$W$4</c:f>
-              <c:numCache/>
+              <c:f>'Burndown Chart'!$B$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F759-6744-86BC-94EFB1BA4DB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1508,10 +1766,16 @@
           <c:tx>
             <c:strRef>
               <c:f>'Burndown Chart'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plan</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="9525">
+            <a:ln w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DB4437"/>
               </a:solidFill>
@@ -1521,23 +1785,128 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$3:$W$3</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$5:$W$5</c:f>
-              <c:numCache/>
+              <c:f>'Burndown Chart'!$B$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F759-6744-86BC-94EFB1BA4DB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1208360173"/>
-        <c:axId val="227837614"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="698889715"/>
+        <c:axId val="188132783"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1208360173"/>
+        <c:axId val="698889715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1927,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="it-IT" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1574,7 +1943,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1587,15 +1956,21 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227837614"/>
+        <c:crossAx val="188132783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227837614"/>
+        <c:axId val="188132783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1634,7 +2009,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="it-IT" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1647,7 +2022,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1666,9 +2041,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208360173"/>
+        <c:crossAx val="698889715"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1686,31 +2064,41 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6629400" cy="3743325"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1719,7 +2107,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1728,63 +2116,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F104" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F104">
   <tableColumns count="6">
-    <tableColumn name="PB Name" id="1"/>
-    <tableColumn name="Task Name" id="2"/>
-    <tableColumn name="Description and details" id="3"/>
-    <tableColumn name="Check Out" id="4"/>
-    <tableColumn name="Status" id="5"/>
-    <tableColumn name="Remaining Effort [hr]" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PB Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description and details"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check Out"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remaining Effort [hr]"/>
   </tableColumns>
-  <tableStyleInfo name="Sprint Backlog-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sprint Backlog-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:Z5" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="26">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:P5" headerRowCount="0">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16"/>
   </tableColumns>
-  <tableStyleInfo name="Burndown Chart-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Burndown Chart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1794,84 +2160,401 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C101" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:C101">
   <tableColumns count="3">
-    <tableColumn name="Story Name" id="1"/>
-    <tableColumn name="Story Description" id="2"/>
-    <tableColumn name="Status" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Story Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Story Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Status"/>
   </tableColumns>
-  <tableStyleInfo name="Product Backlog-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Product Backlog-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C26" displayName="Table_4" name="Table_4" id="4">
-  <tableColumns count="3">
-    <tableColumn name="Version" id="1"/>
-    <tableColumn name="Date" id="2"/>
-    <tableColumn name="Changes" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:D21">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Version"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Changes"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Author"/>
   </tableColumns>
-  <tableStyleInfo name="Change Log-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Change Log-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A11" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:A11">
   <tableColumns count="1">
-    <tableColumn name="Product Backlog Status Options" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Product Backlog Status Options"/>
   </tableColumns>
-  <tableStyleInfo name="Setup-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Setup-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="C1:C11" displayName="Table_6" name="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="C1:C11">
   <tableColumns count="1">
-    <tableColumn name="Spring Backlog Status Options" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Spring Backlog Status Options"/>
   </tableColumns>
-  <tableStyleInfo name="Setup-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Setup-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="E1:E11" displayName="Table_7" name="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="E1:E11">
   <tableColumns count="1">
-    <tableColumn name="Development Team" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Development Team"/>
   </tableColumns>
-  <tableStyleInfo name="Setup-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Setup-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.38"/>
-    <col customWidth="1" min="2" max="2" width="26.13"/>
-    <col customWidth="1" min="3" max="3" width="29.75"/>
-    <col customWidth="1" min="4" max="4" width="15.25"/>
-    <col customWidth="1" min="5" max="5" width="9.13"/>
-    <col customWidth="1" min="6" max="6" width="9.88"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1884,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1901,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1921,10 +2604,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1941,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1961,10 +2644,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1981,10 +2664,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2001,10 +2684,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2021,10 +2704,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2041,10 +2724,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2061,10 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F10" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2081,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2101,10 +2785,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2121,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2141,10 +2825,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2161,10 +2845,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2181,10 +2865,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -2201,10 +2885,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -2221,10 +2905,10 @@
         <v>10</v>
       </c>
       <c r="F18" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -2241,10 +2925,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -2261,10 +2945,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2281,10 +2965,10 @@
         <v>10</v>
       </c>
       <c r="F21" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2301,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -2321,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="F23" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
@@ -2341,10 +3025,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2361,10 +3045,10 @@
         <v>10</v>
       </c>
       <c r="F25" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -2381,10 +3065,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2401,10 +3085,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -2421,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -2441,10 +3125,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -2461,10 +3145,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
@@ -2481,10 +3165,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -2501,10 +3185,10 @@
         <v>10</v>
       </c>
       <c r="F32" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -2521,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -2541,10 +3225,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -2561,10 +3245,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
@@ -2581,10 +3265,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
@@ -2601,10 +3285,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2621,10 +3305,10 @@
         <v>10</v>
       </c>
       <c r="F38" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
@@ -2641,10 +3325,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -2661,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="F40" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -2681,10 +3365,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
@@ -2701,10 +3385,10 @@
         <v>10</v>
       </c>
       <c r="F42" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>98</v>
       </c>
@@ -2721,10 +3405,10 @@
         <v>10</v>
       </c>
       <c r="F43" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
@@ -2741,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -2761,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="F45" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
@@ -2781,10 +3465,10 @@
         <v>10</v>
       </c>
       <c r="F46" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -2801,10 +3485,10 @@
         <v>10</v>
       </c>
       <c r="F47" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>111</v>
       </c>
@@ -2821,10 +3505,10 @@
         <v>10</v>
       </c>
       <c r="F48" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>111</v>
       </c>
@@ -2841,10 +3525,10 @@
         <v>10</v>
       </c>
       <c r="F49" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>111</v>
       </c>
@@ -2861,10 +3545,10 @@
         <v>10</v>
       </c>
       <c r="F50" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>111</v>
       </c>
@@ -2881,10 +3565,10 @@
         <v>10</v>
       </c>
       <c r="F51" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -2901,10 +3585,10 @@
         <v>10</v>
       </c>
       <c r="F52" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>111</v>
       </c>
@@ -2921,10 +3605,10 @@
         <v>10</v>
       </c>
       <c r="F53" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>124</v>
       </c>
@@ -2941,10 +3625,10 @@
         <v>10</v>
       </c>
       <c r="F54" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>124</v>
       </c>
@@ -2961,10 +3645,10 @@
         <v>10</v>
       </c>
       <c r="F55" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2981,10 +3665,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>124</v>
       </c>
@@ -3001,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F57" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>124</v>
       </c>
@@ -3021,10 +3705,10 @@
         <v>10</v>
       </c>
       <c r="F58" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -3041,10 +3725,10 @@
         <v>10</v>
       </c>
       <c r="F59" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>137</v>
       </c>
@@ -3061,10 +3745,10 @@
         <v>10</v>
       </c>
       <c r="F60" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
@@ -3081,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="F61" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -3101,10 +3785,10 @@
         <v>10</v>
       </c>
       <c r="F62" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
@@ -3121,10 +3805,10 @@
         <v>10</v>
       </c>
       <c r="F63" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
@@ -3141,10 +3825,10 @@
         <v>10</v>
       </c>
       <c r="F64" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>137</v>
       </c>
@@ -3161,10 +3845,10 @@
         <v>10</v>
       </c>
       <c r="F65" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>149</v>
       </c>
@@ -3181,10 +3865,10 @@
         <v>10</v>
       </c>
       <c r="F66" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>149</v>
       </c>
@@ -3201,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="F67" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -3221,10 +3905,10 @@
         <v>10</v>
       </c>
       <c r="F68" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>149</v>
       </c>
@@ -3241,10 +3925,10 @@
         <v>10</v>
       </c>
       <c r="F69" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>149</v>
       </c>
@@ -3261,10 +3945,10 @@
         <v>10</v>
       </c>
       <c r="F70" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>149</v>
       </c>
@@ -3281,10 +3965,10 @@
         <v>10</v>
       </c>
       <c r="F71" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>162</v>
       </c>
@@ -3301,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="F72" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>162</v>
       </c>
@@ -3321,10 +4005,10 @@
         <v>10</v>
       </c>
       <c r="F73" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>162</v>
       </c>
@@ -3341,10 +4025,10 @@
         <v>10</v>
       </c>
       <c r="F74" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>162</v>
       </c>
@@ -3361,10 +4045,10 @@
         <v>10</v>
       </c>
       <c r="F75" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>162</v>
       </c>
@@ -3381,10 +4065,10 @@
         <v>10</v>
       </c>
       <c r="F76" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>162</v>
       </c>
@@ -3401,10 +4085,10 @@
         <v>10</v>
       </c>
       <c r="F77" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>175</v>
       </c>
@@ -3421,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="F78" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
@@ -3441,10 +4125,10 @@
         <v>10</v>
       </c>
       <c r="F79" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>175</v>
       </c>
@@ -3461,10 +4145,10 @@
         <v>10</v>
       </c>
       <c r="F80" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>175</v>
       </c>
@@ -3481,10 +4165,10 @@
         <v>10</v>
       </c>
       <c r="F81" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>175</v>
       </c>
@@ -3501,10 +4185,10 @@
         <v>10</v>
       </c>
       <c r="F82" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>175</v>
       </c>
@@ -3521,10 +4205,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>188</v>
       </c>
@@ -3541,10 +4225,10 @@
         <v>10</v>
       </c>
       <c r="F84" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>188</v>
       </c>
@@ -3561,10 +4245,10 @@
         <v>10</v>
       </c>
       <c r="F85" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>188</v>
       </c>
@@ -3581,10 +4265,10 @@
         <v>10</v>
       </c>
       <c r="F86" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3601,10 +4285,10 @@
         <v>10</v>
       </c>
       <c r="F87" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>188</v>
       </c>
@@ -3621,10 +4305,10 @@
         <v>10</v>
       </c>
       <c r="F88" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>188</v>
       </c>
@@ -3641,10 +4325,10 @@
         <v>10</v>
       </c>
       <c r="F89" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>201</v>
       </c>
@@ -3661,10 +4345,10 @@
         <v>10</v>
       </c>
       <c r="F90" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>201</v>
       </c>
@@ -3681,10 +4365,10 @@
         <v>10</v>
       </c>
       <c r="F91" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>201</v>
       </c>
@@ -3701,10 +4385,10 @@
         <v>10</v>
       </c>
       <c r="F92" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>201</v>
       </c>
@@ -3721,10 +4405,10 @@
         <v>10</v>
       </c>
       <c r="F93" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3741,10 +4425,10 @@
         <v>10</v>
       </c>
       <c r="F94" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>201</v>
       </c>
@@ -3761,10 +4445,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>214</v>
       </c>
@@ -3781,10 +4465,10 @@
         <v>10</v>
       </c>
       <c r="F96" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>214</v>
       </c>
@@ -3801,10 +4485,10 @@
         <v>10</v>
       </c>
       <c r="F97" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>214</v>
       </c>
@@ -3821,10 +4505,10 @@
         <v>10</v>
       </c>
       <c r="F98" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>214</v>
       </c>
@@ -3841,10 +4525,10 @@
         <v>10</v>
       </c>
       <c r="F99" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>214</v>
       </c>
@@ -3861,10 +4545,10 @@
         <v>10</v>
       </c>
       <c r="F100" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>214</v>
       </c>
@@ -3881,26 +4565,26 @@
         <v>10</v>
       </c>
       <c r="F101" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -3909,8 +4593,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D04C1F66-18DE-4E81-9B6D-ECE568FEAADC}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$B$1:$F$104"/>
+    <customSheetView guid="{42CAC4A3-DE29-4D5A-A7CA-F32097E4DB13}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:F104" xr:uid="{12EEFADC-1058-5443-8D4F-EA3DC03125A6}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="F2:F104">
@@ -3925,45 +4610,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A104">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A104" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>PBInames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D104">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D104" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>DTnames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E104">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E104" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>SBstatus</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="F68:F104">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="F68:F104" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.13"/>
-    <col customWidth="1" min="2" max="25" width="4.13"/>
-    <col customWidth="1" min="26" max="32" width="5.0"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="300.0" customHeight="1">
+    <row r="1" spans="1:22" ht="300" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3979,390 +4668,255 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16">
+        <v>45952</v>
+      </c>
+      <c r="C2" s="16">
+        <v>45953</v>
+      </c>
+      <c r="D2" s="16">
+        <v>45954</v>
+      </c>
+      <c r="E2" s="16">
+        <v>45955</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45956</v>
+      </c>
+      <c r="G2" s="16">
+        <v>45957</v>
+      </c>
+      <c r="H2" s="16">
+        <v>45958</v>
+      </c>
+      <c r="I2" s="16">
+        <v>45959</v>
+      </c>
+      <c r="J2" s="16">
+        <v>45960</v>
+      </c>
+      <c r="K2" s="16">
+        <v>45961</v>
+      </c>
+      <c r="L2" s="16">
+        <v>45962</v>
+      </c>
+      <c r="M2" s="16">
+        <v>45963</v>
+      </c>
+      <c r="N2" s="16">
+        <v>45964</v>
+      </c>
+      <c r="O2" s="16">
+        <v>45965</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
+        <v>10</v>
+      </c>
+      <c r="M3" s="8">
+        <v>11</v>
+      </c>
+      <c r="N3" s="8">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8">
+        <v>13</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B4" s="11">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11">
+        <v>12</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="10">
-        <v>45667.0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>45698.0</v>
-      </c>
-      <c r="M2" s="10">
-        <v>45726.0</v>
-      </c>
-      <c r="N2" s="10">
-        <v>45757.0</v>
-      </c>
-      <c r="O2" s="10">
-        <v>45787.0</v>
-      </c>
-      <c r="P2" s="10">
-        <v>45818.0</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>45848.0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>45879.0</v>
-      </c>
-      <c r="S2" s="10">
-        <v>45910.0</v>
-      </c>
-      <c r="T2" s="10">
-        <v>45940.0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>45971.0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>46001.0</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="L3" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="M3" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="N3" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="O3" s="15">
-        <v>13.0</v>
-      </c>
-      <c r="P3" s="15">
-        <v>14.0</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>15.0</v>
-      </c>
-      <c r="R3" s="15">
-        <v>16.0</v>
-      </c>
-      <c r="S3" s="15">
-        <v>17.0</v>
-      </c>
-      <c r="T3" s="15">
-        <v>18.0</v>
-      </c>
-      <c r="U3" s="15">
-        <v>19.0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>20.0</v>
-      </c>
-      <c r="W3" s="15">
-        <v>21.0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>22.0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>23.0</v>
-      </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>22.0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>18.0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>16.0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>14.0</v>
-      </c>
-      <c r="L4" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="S4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="W4" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="C5" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>29.0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>27.0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>26.0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>24.0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>23.0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>21.0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>18.0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>17.0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>15.0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>14.0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20">
+      <c r="B5" s="11">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11">
+        <v>14</v>
+      </c>
+      <c r="I5" s="11">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11">
+        <v>10</v>
+      </c>
+      <c r="K5" s="11">
+        <v>8</v>
+      </c>
+      <c r="L5" s="11">
+        <v>6</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <f>SUM('Sprint Backlog'!$F$2:$F$101)</f>
         <v>0</v>
       </c>
@@ -4370,1131 +4924,1214 @@
         <f>'Sprint Backlog'!F1</f>
         <v>Remaining Effort [hr]</v>
       </c>
-      <c r="W7" s="22"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f>COUNTA($B$2:$AF$2)-1</f>
-        <v>22</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="W8" s="22"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24" t="str">
+        <f>COUNTA($B$2:$V$2)-1</f>
+        <v>13</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="str">
         <f>HYPERLINK("http://media.agile42.com/content/Scrum_in_a_nutshell.pdf?_ga=1.116226372.393292814.1481048729","Reference: Scrum in a Nutshell")</f>
         <v>Reference: Scrum in a Nutshell</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="24" t="str">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="str">
         <f>HYPERLINK("https://blog.zepel.io/understanding-burndown-charts/","Reference: Understanding Burndown Charts")</f>
         <v>Reference: Understanding Burndown Charts</v>
       </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B7:V7"/>
-    <mergeCell ref="B8:V8"/>
-    <mergeCell ref="A9:AF9"/>
-    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="A9:V9"/>
+    <mergeCell ref="A10:V10"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:V2">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B4:L4 N4:O4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISNUMBER(B2),TRUNC(B2)&gt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:L4 N4:W4">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFB45F06"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="12.5"/>
-    <col customWidth="1" min="2" max="2" width="63.38"/>
-    <col customWidth="1" min="3" max="3" width="10.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-    </row>
-  </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C101">
-      <formula1>PBstatus</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFB7B7B7"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="6.38"/>
-    <col customWidth="1" min="2" max="2" width="10.5"/>
-    <col customWidth="1" min="3" max="3" width="50.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="29">
-        <v>45922.0</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="29">
-        <v>45922.0</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="29">
-        <v>45922.0</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="29">
-        <v>45923.0</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="29">
-        <v>45926.0</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="29">
-        <v>45926.0</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="29">
-        <v>45926.0</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="29">
-        <v>45928.0</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="29">
-        <v>45929.0</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="29">
-        <v>45929.0</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="29">
-        <v>45930.0</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="29">
-        <v>45931.0</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="29">
-        <v>45932.0</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="29">
-        <v>45933.0</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B16" s="29">
-        <v>45933.0</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="29">
-        <v>45933.0</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="29">
-        <v>45934.0</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="29">
-        <v>45935.0</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="29">
-        <v>45936.0</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="30">
-        <v>45936.0</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="30">
-        <v>45937.0</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="30">
-        <v>45943.0</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="B24" s="30">
-        <v>45943.0</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="30">
-        <v>45945.0</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="30">
-        <v>45945.0</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFB45F06"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C101" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>PBstatus</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.5"/>
-    <col customWidth="1" min="2" max="2" width="3.63"/>
-    <col customWidth="1" min="3" max="3" width="23.88"/>
-    <col customWidth="1" min="4" max="4" width="3.5"/>
-    <col customWidth="1" min="5" max="5" width="24.88"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>308</v>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45935</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="14">
+        <v>45953</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45954</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45954</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45954</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45957</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45957</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45957</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45957</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45958</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45958</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="14">
+        <v>45958</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45959</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="14">
+        <v>45959</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="14">
+        <v>45959</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="14">
+        <v>45959</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="14">
+        <v>45960</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="14">
+        <v>45960</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45960</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45965</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Giovanni,Leonardo,Nicolas,Riccardo"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFB7B7B7"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="31" t="s">
-        <v>309</v>
+      <c r="C1" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="31" t="s">
-        <v>311</v>
+      <c r="E1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="31" t="s">
-        <v>312</v>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="31"/>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="31"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="31"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="31"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/booklets/SCRUM ByteRisto.xlsx
+++ b/booklets/SCRUM ByteRisto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Desktop/engineering in cs/1° anno/lab of advanced programming/ByteRisto/booklets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D5765-35EB-3D41-B284-B0F26E33858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438013B-E29B-3340-A918-0A6BD865ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="297">
   <si>
     <t>PB Name</t>
   </si>
@@ -1174,6 +1174,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>v2.5.0</t>
+  </si>
+  <si>
+    <t>Booklets patch &amp; Presentation ByteRisto uploaded</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1188,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d&quot;/&quot;m"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m;@"/>
+    <numFmt numFmtId="165" formatCode="d/m;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1227,7 +1233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1244,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1291,9 +1291,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1303,34 +1300,35 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
@@ -1346,6 +1344,9 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -1518,39 +1519,39 @@
   </dxfs>
   <tableStyles count="7">
     <tableStyle name="Sprint Backlog-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="Burndown Chart-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Product Backlog-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Change Log-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Setup-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Setup-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Setup-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1733,22 +1734,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1882,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,10 +2172,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:D21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:D22">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Version"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Changes"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Author"/>
   </tableColumns>
@@ -2554,7 +2555,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2746,7 +2747,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -4595,7 +4596,7 @@
   <customSheetViews>
     <customSheetView guid="{42CAC4A3-DE29-4D5A-A7CA-F32097E4DB13}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:F104" xr:uid="{12EEFADC-1058-5443-8D4F-EA3DC03125A6}"/>
+      <autoFilter ref="B1:F104" xr:uid="{6650087C-7545-5140-95D2-1C68A4E93867}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="F2:F104">
@@ -4641,7 +4642,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4675,59 +4676,61 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:22" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>45952</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>45953</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>45954</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>45955</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>45956</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>45957</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>45958</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>45959</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <v>45960</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>45961</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="14">
         <v>45962</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>45963</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="14">
         <v>45964</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <v>45965</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="P2" s="14">
+        <v>45969</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -4775,7 +4778,9 @@
       <c r="O3" s="8">
         <v>13</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="8">
+        <v>14</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -4787,49 +4792,51 @@
       <c r="A4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>26</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>24</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>16</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>12</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2</v>
+      </c>
+      <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -4841,49 +4848,51 @@
       <c r="A5" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>26</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>24</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>22</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>20</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>18</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>16</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>14</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>12</v>
       </c>
-      <c r="J5" s="11">
-        <v>10</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
         <v>8</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>6</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>4</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10"/>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -4893,20 +4902,20 @@
     </row>
     <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -4920,23 +4929,23 @@
         <f>SUM('Sprint Backlog'!$F$2:$F$101)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f>'Sprint Backlog'!F1</f>
         <v>Remaining Effort [hr]</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -4948,24 +4957,24 @@
     <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>COUNTA($B$2:$V$2)-1</f>
-        <v>13</v>
-      </c>
-      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -4975,58 +4984,58 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="str">
+      <c r="A9" s="24" t="str">
         <f>HYPERLINK("http://media.agile42.com/content/Scrum_in_a_nutshell.pdf?_ga=1.116226372.393292814.1481048729","Reference: Scrum in a Nutshell")</f>
         <v>Reference: Scrum in a Nutshell</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="str">
+      <c r="A10" s="24" t="str">
         <f>HYPERLINK("https://blog.zepel.io/understanding-burndown-charts/","Reference: Understanding Burndown Charts")</f>
         <v>Reference: Understanding Burndown Charts</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5036,12 +5045,12 @@
     <mergeCell ref="A10:V10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B4:L4 N4:O4">
+  <conditionalFormatting sqref="B4:P4">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:O2">
+  <conditionalFormatting sqref="B2:P2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISNUMBER(B2),TRUNC(B2)&gt;TODAY())</formula>
     </cfRule>
@@ -5087,576 +5096,576 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5678,17 +5687,17 @@
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
@@ -5697,7 +5706,7 @@
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5711,7 +5720,7 @@
       <c r="A2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="20">
         <v>45935</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5725,7 +5734,7 @@
       <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="20">
         <v>45953</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5739,7 +5748,7 @@
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="20">
         <v>45954</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5753,7 +5762,7 @@
       <c r="A5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="20">
         <v>45954</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5767,7 +5776,7 @@
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="20">
         <v>45954</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5781,7 +5790,7 @@
       <c r="A7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="20">
         <v>45957</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5795,7 +5804,7 @@
       <c r="A8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="20">
         <v>45957</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5809,7 +5818,7 @@
       <c r="A9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="20">
         <v>45957</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5823,7 +5832,7 @@
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="20">
         <v>45957</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5837,7 +5846,7 @@
       <c r="A11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="20">
         <v>45958</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5851,7 +5860,7 @@
       <c r="A12" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="20">
         <v>45958</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5865,7 +5874,7 @@
       <c r="A13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="20">
         <v>45958</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5879,7 +5888,7 @@
       <c r="A14" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="20">
         <v>45959</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5893,7 +5902,7 @@
       <c r="A15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="20">
         <v>45959</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5907,7 +5916,7 @@
       <c r="A16" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="20">
         <v>45959</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5921,7 +5930,7 @@
       <c r="A17" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="20">
         <v>45959</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5935,7 +5944,7 @@
       <c r="A18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="20">
         <v>45960</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5949,7 +5958,7 @@
       <c r="A19" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="20">
         <v>45960</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5963,7 +5972,7 @@
       <c r="A20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="20">
         <v>45960</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5977,19 +5986,34 @@
       <c r="A21" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="20">
         <v>45965</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>287</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="20">
+        <v>45969</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D22" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Giovanni,Leonardo,Nicolas,Riccardo"</formula1>
     </dataValidation>
   </dataValidations>
